--- a/data/trans_bre/P23_2_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P23_2_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>11,86</t>
+          <t>15,06</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>11,45</t>
+          <t>14,33</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>5,33</t>
+          <t>12,53</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>82,7%</t>
+          <t>14,04</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>87,81%</t>
+          <t>143,16%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>38,03%</t>
+          <t>116,87%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>128,88%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>89,83%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,91; 17,91</t>
+          <t>7,01; 22,52</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,6; 17,58</t>
+          <t>6,18; 21,87</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,45; 12,28</t>
+          <t>4,83; 19,56</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>27,67; 155,58</t>
+          <t>4,42; 23,31</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>13,19; 185,01</t>
+          <t>42,37; 309,82</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-24,37; 122,96</t>
+          <t>35,71; 275,16</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>27,94; 283,87</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>22,01; 218,28</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>9,31</t>
+          <t>12,63</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>15,5</t>
+          <t>13,79</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>12,7</t>
+          <t>9,6</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>63,67%</t>
+          <t>10,81</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>103,35%</t>
+          <t>87,59%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>90,52%</t>
+          <t>81,97%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>58,42%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>44,91%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,86; 16,07</t>
+          <t>3,16; 22,37</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,66; 23,39</t>
+          <t>3,76; 23,37</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,89; 20,34</t>
+          <t>-1,23; 19,01</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,74; 141,69</t>
+          <t>-0,33; 24,21</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>22,92; 220,52</t>
+          <t>13,21; 224,6</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>23,84; 189,54</t>
+          <t>15,13; 197,83</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-8,01; 161,92</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-4,55; 127,97</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,4</t>
+          <t>4,32</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>5,49</t>
+          <t>1,28</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-2,37</t>
+          <t>-13,95</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>26,52%</t>
+          <t>-29,66</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>30,49%</t>
+          <t>22,3%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-9,93%</t>
+          <t>5,23%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-38,47%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-54,71%</t>
         </is>
       </c>
     </row>
@@ -802,32 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-10,5; 18,13</t>
+          <t>-19,31; 24,25</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,9; 20,29</t>
+          <t>-22,03; 24,19</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-28,11; 16,02</t>
+          <t>-54,78; 16,58</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-42,33; 216,63</t>
+          <t>-62,74; -0,34</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-35,5; 202,43</t>
+          <t>-58,68; 289,7</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-66,4; 159,15</t>
+          <t>-58,13; 260,39</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-86,11; 150,69</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-86,56; 2,59</t>
         </is>
       </c>
     </row>
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>10,07</t>
+          <t>12,88</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>12,33</t>
+          <t>12,67</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>7,22</t>
+          <t>8,48</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>68,43%</t>
+          <t>7,68</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>85,43%</t>
+          <t>98,13%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>47,29%</t>
+          <t>82,11%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>55,43%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>32,68%</t>
         </is>
       </c>
     </row>
@@ -882,42 +968,59 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,95; 14,93</t>
+          <t>7,08; 18,61</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,9; 17,18</t>
+          <t>6,31; 18,13</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,81; 12,42</t>
+          <t>-0,63; 14,75</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>33,69; 124,32</t>
+          <t>-1,45; 15,92</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>37,93; 141,15</t>
+          <t>40,63; 180,86</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,68; 105,45</t>
+          <t>32,6; 144,65</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-7,42; 122,57</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-6,17; 81,26</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P23_2_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P23_2_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>15,06</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>14,33</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>12,53</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>14,04</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>143,16%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>116,87%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>128,88%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>89,83%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>15.67525258446687</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>14.79946949889775</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>12.02588630636575</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>13.02336883782377</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>1.580015997842398</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>1.266787196646765</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>1.189226390075198</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.8187401822342116</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>7,01; 22,52</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>6,18; 21,87</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>4,83; 19,56</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>4,42; 23,31</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>42,37; 309,82</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>35,71; 275,16</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>27,94; 283,87</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>22,01; 218,28</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>7.252239613168167</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>6.114370665233094</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>3.904738501735047</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>3.665614690796917</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>0.5154170599857661</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>0.3629137419766982</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>0.2216651288352926</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>0.1781934968353056</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>22.9297447987066</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>22.30535325602102</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>19.46848759262774</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>23.03320888724866</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>3.479166747796246</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>2.829892736767202</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>2.775719060497704</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>2.092313025726457</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>12,63</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>13,79</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>9,6</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>10,81</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>87,59%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>81,97%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>58,42%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>44,91%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>3,16; 22,37</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>3,76; 23,37</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-1,23; 19,01</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-0,33; 24,21</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>13,21; 224,6</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>15,13; 197,83</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-8,01; 161,92</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-4,55; 127,97</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>11.65688217048266</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>15.05128591499913</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>9.062088609337945</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>9.271539279982251</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>0.7586978569279464</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.9266926559156384</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.5433860968050995</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.3811179836173404</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>4,32</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>1,28</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-13,95</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-29,66</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>22,3%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>5,23%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-38,47%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-54,71%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>0.8107971658330899</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>5.093657934673431</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-2.679000153246609</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-2.302555727658536</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>0.004376817923631924</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>0.2286598930271163</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.1262666474813077</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.1018729845015903</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-19,31; 24,25</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-22,03; 24,19</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-54,78; 16,58</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-62,74; -0,34</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-58,68; 289,7</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-58,13; 260,39</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-86,11; 150,69</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-86,56; 2,59</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>22.09425482923658</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>24.68731210770435</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>18.14253911159921</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>21.41192881660113</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>2.132469956905863</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>2.179126530898963</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>1.577087469857691</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>1.152409907988103</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,97 +827,197 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>12,88</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>12,67</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>8,48</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>7,68</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>98,13%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>82,11%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>55,43%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>32,68%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>5.288769742221336</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>1.492630474454582</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-13.37347052794376</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-30.45537490220833</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>0.2949232959873769</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.06039128229072556</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>-0.3730285815589504</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.5733261831352175</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>7,08; 18,61</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>6,31; 18,13</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-0,63; 14,75</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-1,45; 15,92</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>40,63; 180,86</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>32,6; 144,65</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-7,42; 122,57</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-6,17; 81,26</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-16.56329617139382</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-22.77102773246376</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-52.95746480439675</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-63.79086300369826</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.5595407615178832</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.5766735636774218</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.852177873588022</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.8844718754620738</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>25.16286934051488</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>24.83375439841459</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>18.54357732465797</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>-1.265318443684562</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>3.337985558826788</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>2.469568010744642</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>1.560290421785636</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>-0.03212553980079882</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>12.89097950186761</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>13.37939490313826</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>8.025486471237764</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>6.349937388657622</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.9883037613533726</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.8937158464621224</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.513990691505675</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.2674094978246452</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>6.78447117452431</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>6.839725129552628</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.6641701128159828</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-2.92669270715001</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>0.3920749836425033</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>0.387940320965153</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.07430715539261258</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.1212840459670958</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>18.92207106369044</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>18.83242437439983</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>14.2792743614773</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>14.31601100531098</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>1.898432772954375</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>1.559273250448251</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>1.177516464485082</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.717830090909453</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1016,13 +1025,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
